--- a/xlsx/凌志CT_intext.xlsx
+++ b/xlsx/凌志CT_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>凌志CT</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_凌志CT</t>
+    <t>丰田汽车</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_凌志CT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -113,9 +113,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>丰田汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%A6</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%96%A9%E6%96%AFHS</t>
   </si>
   <si>
-    <t>雷克薩斯HS</t>
+    <t>雷克萨斯HS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFES</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97RX</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFIS_F</t>
@@ -1044,7 +1041,7 @@
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1099,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1128,10 +1125,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1157,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1186,10 +1183,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1215,10 +1212,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1244,10 +1241,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1273,10 +1270,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1302,10 +1299,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1331,10 +1328,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1360,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1389,10 +1386,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
         <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1418,10 +1415,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1447,10 +1444,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1476,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1505,10 +1502,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1534,10 +1531,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -1563,10 +1560,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
